--- a/SAM/SAM_comb.xlsx
+++ b/SAM/SAM_comb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzrfl\Documents\GitHub\DOE_CSP_PROJECT\SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AEC463-8A0C-45CB-B821-FC10CD0DB46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E94F07-1F0B-4961-B9FD-D5CF23D58BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="1425" windowWidth="21030" windowHeight="13200" xr2:uid="{0AB9CDDA-9527-4E50-AF91-EAE24BFA8DE2}"/>
+    <workbookView xWindow="5580" yWindow="645" windowWidth="21030" windowHeight="13200" xr2:uid="{0AB9CDDA-9527-4E50-AF91-EAE24BFA8DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>CSP</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>utilityrate5</t>
+  </si>
+  <si>
+    <t>LCOH calculator</t>
+  </si>
+  <si>
+    <t>lcoefcr_IPH_PT_inputs</t>
+  </si>
+  <si>
+    <t>iph_to_lcoefcr</t>
+  </si>
+  <si>
+    <t>iph_to_lcoefcr_inputs</t>
+  </si>
+  <si>
+    <t>fin2Path</t>
+  </si>
+  <si>
+    <t>trough_physical_process_heat_iph_to_lcoefcr</t>
+  </si>
+  <si>
+    <t>iph_to_lcoefcr_trough_physical_process_heat</t>
+  </si>
+  <si>
+    <t>lcoefcr_trough_physical_process_heat_iph_to_lcoefcr</t>
+  </si>
+  <si>
+    <t>fin2Values</t>
   </si>
 </sst>
 </file>
@@ -226,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -248,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2441DE-F27B-4F1C-970B-4AC464B11485}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +607,7 @@
     <col min="8" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -598,8 +626,11 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -619,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -641,7 +672,7 @@
         <v>levpartflip_inputs</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -663,7 +694,7 @@
         <v>utilityrate5_inputs</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -685,7 +716,7 @@
         <v>equpartflip_inputs</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -707,7 +738,7 @@
         <v>lcoefcr_inputs</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -729,7 +760,7 @@
         <v>saleleaseback_inputs</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -740,11 +771,20 @@
         <f t="shared" si="1"/>
         <v>trough_physical_process_heat_inputs</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -755,13 +795,16 @@
         <f t="shared" si="1"/>
         <v>linear_fresnel_dsg_iph_inputs</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
@@ -775,8 +818,11 @@
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -791,8 +837,11 @@
         <f>CONCATENATE(E2,"_",B2)</f>
         <v>singleowner_tcstrough_physical</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -807,8 +856,11 @@
         <f>CONCATENATE(E3,"_",B3)</f>
         <v>levpartflip_tcslinear_fresnel</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -822,6 +874,26 @@
       <c r="E15" t="str">
         <f>CONCATENATE(E2,"_",B3)</f>
         <v>singleowner_tcslinear_fresnel</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/SAM_comb.xlsx
+++ b/SAM/SAM_comb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzrfl\Documents\GitHub\DOE_CSP_PROJECT\SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E94F07-1F0B-4961-B9FD-D5CF23D58BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005ADF57-90E4-4E6D-B1BB-7F92F1838870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="645" windowWidth="21030" windowHeight="13200" xr2:uid="{0AB9CDDA-9527-4E50-AF91-EAE24BFA8DE2}"/>
+    <workbookView xWindow="8520" yWindow="1095" windowWidth="20250" windowHeight="13575" xr2:uid="{0AB9CDDA-9527-4E50-AF91-EAE24BFA8DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
